--- a/competitionmarkets/Gini Index Data/US_gini_index.xlsx
+++ b/competitionmarkets/Gini Index Data/US_gini_index.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harrietbrookesgray/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harrietbrookesgray/Documents/GitHub/bfh-textbook/competitionmarkets/Gini Index Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FE50E6-1340-2044-BD25-76D3CB8FE78C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7721F15A-4118-BC4D-A435-E2D10D850A86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5040" yWindow="460" windowWidth="23220" windowHeight="15640" xr2:uid="{0713D00B-0030-4741-ADB0-5E8B1D318BEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,12 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">Year </t>
   </si>
   <si>
     <t>Gini Index</t>
+  </si>
+  <si>
+    <t>gini_index</t>
   </si>
 </sst>
 </file>
@@ -388,256 +391,384 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9BF789-2DF9-4347-8CC3-A9B5D42C4C7D}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:B42"/>
+      <selection activeCell="C1" sqref="C1:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1979</v>
       </c>
       <c r="B2">
-        <v>34.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <f>(34.6/100)</f>
+        <v>0.34600000000000003</v>
+      </c>
+      <c r="C2">
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1980</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>0.35014286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1981</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>0.35428570999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1982</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>0.35842857</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1983</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>0.36257142999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1984</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>0.36671429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1985</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>0.37085713999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1986</v>
       </c>
       <c r="B9">
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <f>37.5/100</f>
+        <v>0.375</v>
+      </c>
+      <c r="C9">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1987</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>0.37640000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1988</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>0.37780000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1989</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>0.37919999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1990</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>0.38059999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1991</v>
       </c>
       <c r="B14">
-        <v>38.200000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <f>38.2/100</f>
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="C14">
+        <v>0.38200000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1992</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>0.38866666999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1993</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>0.39533332999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1994</v>
       </c>
       <c r="B17">
-        <v>40.200000000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <f>40.2/100</f>
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="C17">
+        <v>0.40200000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1995</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>0.40400000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1996</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>0.40600000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1997</v>
       </c>
       <c r="B20">
-        <v>40.799999999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <f>40.8/100</f>
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="C20">
+        <v>0.40799999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1998</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>0.40666667000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1999</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>0.40533332999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2000</v>
       </c>
       <c r="B23">
-        <v>40.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <f>40.4/100</f>
+        <v>0.40399999999999997</v>
+      </c>
+      <c r="C23">
+        <v>0.40400000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2001</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>0.40425</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2002</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>0.40450000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2003</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>0.40475</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2004</v>
       </c>
       <c r="B27">
-        <v>40.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <f>40.5/100</f>
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="C27">
+        <v>0.40500000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2005</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>0.40699999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2006</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>0.40899999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2007</v>
       </c>
       <c r="B30">
-        <v>41.1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+        <f>41.1/100</f>
+        <v>0.41100000000000003</v>
+      </c>
+      <c r="C30">
+        <v>0.41099999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2008</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>0.40866667000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2009</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>0.40633332999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2010</v>
       </c>
       <c r="B33">
-        <v>40.4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+        <f>40.4/100</f>
+        <v>0.40399999999999997</v>
+      </c>
+      <c r="C33">
+        <v>0.40400000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2011</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>0.40600000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2012</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>0.40799999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2013</v>
       </c>
       <c r="B36">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+        <f>41/100</f>
+        <v>0.41</v>
+      </c>
+      <c r="C36">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2014</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>0.41166667000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2015</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>0.41333333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2016</v>
       </c>
       <c r="B39">
-        <v>41.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+        <f>41.5/100</f>
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="C39">
+        <v>0.41499999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2017</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2018</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2019</v>
       </c>
